--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.07740005172721</v>
+        <v>19.077400109545863</v>
       </c>
       <c r="C2">
-        <v>9.1890234612845987</v>
+        <v>9.1890234718711028</v>
       </c>
       <c r="D2">
-        <v>30.929007457444449</v>
+        <v>30.929007492107012</v>
       </c>
       <c r="E2">
-        <v>14.478320919334308</v>
+        <v>14.478320962874356</v>
       </c>
       <c r="F2">
-        <v>59.675075431581973</v>
+        <v>59.675075439025861</v>
       </c>
       <c r="G2">
-        <v>1.719407842367751</v>
+        <v>1.7194078627158618</v>
       </c>
       <c r="H2">
-        <v>1.7660091501820574</v>
+        <v>1.7660091891157776</v>
       </c>
       <c r="I2">
-        <v>4.436643728854186</v>
+        <v>4.4366437551336873</v>
       </c>
       <c r="J2">
-        <v>5.269929559852784</v>
+        <v>5.26992957881059</v>
       </c>
       <c r="K2">
-        <v>7.0602162381086657</v>
+        <v>7.0602162527819559</v>
       </c>
       <c r="L2">
-        <v>3.9637863090309935</v>
+        <v>3.9637863594329161</v>
       </c>
       <c r="M2">
-        <v>7.1997353249756557</v>
+        <v>7.1997353725520199</v>
       </c>
       <c r="N2">
-        <v>0.88711975040611435</v>
+        <v>0.88711981103574544</v>
       </c>
       <c r="O2">
-        <v>-3.4082416106182905</v>
+        <v>-3.4082415761405258</v>
       </c>
       <c r="P2">
-        <v>11.898830204291627</v>
+        <v>11.898830212275186</v>
       </c>
       <c r="Q2">
-        <v>6.326311941541725</v>
+        <v>6.3263119550006053</v>
       </c>
       <c r="R2">
-        <v>2.6983023787563525</v>
+        <v>2.698302383168901</v>
       </c>
       <c r="S2">
-        <v>7.2305521322828454</v>
+        <v>7.2305521547658529</v>
       </c>
       <c r="T2">
-        <v>0.26117217336087606</v>
+        <v>0.26117221904259935</v>
       </c>
       <c r="U2">
-        <v>-12.138669341943043</v>
+        <v>-12.138669321899449</v>
       </c>
       <c r="V2">
-        <v>7.1323124752978586</v>
+        <v>7.132312483637449</v>
       </c>
       <c r="W2">
-        <v>2.3098297217718127</v>
+        <v>2.3098297708765259</v>
       </c>
       <c r="X2">
-        <v>-1.8022471791032189</v>
+        <v>-1.8022471599823042</v>
       </c>
       <c r="Y2">
-        <v>-4.8146064136478159</v>
+        <v>-4.8146063884956831</v>
       </c>
       <c r="Z2">
-        <v>23.87857837586931</v>
+        <v>23.878578393844421</v>
       </c>
       <c r="AA2">
-        <v>-1.539659512612559</v>
+        <v>-1.539659435208975</v>
       </c>
       <c r="AB2">
-        <v>10.803889907694142</v>
+        <v>10.803889916206039</v>
       </c>
       <c r="AC2">
-        <v>5.9262068734807585</v>
+        <v>5.9262068654419764</v>
       </c>
       <c r="AD2">
-        <v>15.631100589333471</v>
+        <v>15.631100596191686</v>
       </c>
       <c r="AE2">
-        <v>32.411762057490414</v>
+        <v>32.411762082843929</v>
       </c>
       <c r="AF2">
-        <v>3.4568517135444665</v>
+        <v>3.4568517206134075</v>
       </c>
       <c r="AG2">
-        <v>3.2211666698641039</v>
+        <v>3.2211667085655762</v>
       </c>
       <c r="AH2">
-        <v>5.9765537956409176</v>
+        <v>5.97655381386339</v>
       </c>
       <c r="AI2">
-        <v>-3.9073984242530173</v>
+        <v>-3.9073984002711484</v>
       </c>
       <c r="AJ2">
-        <v>10.427433335035516</v>
+        <v>10.427433393997674</v>
       </c>
       <c r="AK2">
-        <v>8.419695819238612</v>
+        <v>8.4196958605017471</v>
       </c>
       <c r="AL2">
-        <v>2.6955598509784267</v>
+        <v>2.6955598881470451</v>
       </c>
       <c r="AM2">
-        <v>2.4380044450554053</v>
+        <v>2.4380045152925547</v>
       </c>
       <c r="AN2">
-        <v>1.9413487644617362</v>
+        <v>1.9413488133607544</v>
       </c>
       <c r="AO2">
-        <v>4.4874179246243528</v>
+        <v>4.4874179535722938</v>
       </c>
       <c r="AP2">
-        <v>-0.94519943183912858</v>
+        <v>-0.9451994250978224</v>
       </c>
       <c r="AQ2">
-        <v>3.2110780237995513</v>
+        <v>3.2110780464956292</v>
       </c>
       <c r="AR2">
-        <v>3.7811007127112362</v>
+        <v>3.78110073426555</v>
       </c>
       <c r="AS2">
-        <v>3.4043051829834212</v>
+        <v>3.4043051984518229</v>
       </c>
       <c r="AT2">
-        <v>-2.5285834422317635</v>
+        <v>-2.5285834239023401</v>
       </c>
       <c r="AU2">
-        <v>-0.46431250208144803</v>
+        <v>-0.46431249950376241</v>
       </c>
       <c r="AV2">
-        <v>12.419439214517951</v>
+        <v>12.41943925076928</v>
       </c>
       <c r="AW2">
-        <v>0.16354418881664401</v>
+        <v>0.16354421683057296</v>
       </c>
       <c r="AX2">
-        <v>3.9514573047926334</v>
+        <v>3.9514573470193852</v>
       </c>
       <c r="AY2">
-        <v>-4.4391397099084102</v>
+        <v>-4.4391396878630118</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.065002871006293</v>
+        <v>13.065002876020941</v>
       </c>
       <c r="C3">
-        <v>8.0886972888957942</v>
+        <v>8.0886973285356945</v>
       </c>
       <c r="D3">
-        <v>-7.2123391503224497</v>
+        <v>-7.2123391262131875</v>
       </c>
       <c r="E3">
-        <v>9.0575816417325328</v>
+        <v>9.0575816632001178</v>
       </c>
       <c r="F3">
-        <v>11.734385543396044</v>
+        <v>11.734385557928853</v>
       </c>
       <c r="G3">
-        <v>1.0992245096183808</v>
+        <v>1.0992245401899012</v>
       </c>
       <c r="H3">
-        <v>0.99313548050335498</v>
+        <v>0.99313553056818193</v>
       </c>
       <c r="I3">
-        <v>0.51554585334178427</v>
+        <v>0.51554586445979567</v>
       </c>
       <c r="J3">
-        <v>4.6207565570860112</v>
+        <v>4.6207565841069851</v>
       </c>
       <c r="K3">
-        <v>-10.389396355314631</v>
+        <v>-10.389396330083613</v>
       </c>
       <c r="L3">
-        <v>-25.632818817804463</v>
+        <v>-25.632818769961432</v>
       </c>
       <c r="M3">
-        <v>10.545058083360949</v>
+        <v>10.545096311923395</v>
       </c>
       <c r="N3">
-        <v>2.6643434512042532</v>
+        <v>2.6643434940244362</v>
       </c>
       <c r="O3">
-        <v>2.8382650099930871</v>
+        <v>2.838265024556307</v>
       </c>
       <c r="P3">
-        <v>0.39658314900247404</v>
+        <v>0.39658319748136961</v>
       </c>
       <c r="Q3">
-        <v>6.4798439410160498</v>
+        <v>6.4798439541474337</v>
       </c>
       <c r="R3">
-        <v>8.1004145651563064</v>
+        <v>8.1004145978046722</v>
       </c>
       <c r="S3">
-        <v>5.236489564493624</v>
+        <v>5.2364895788736376</v>
       </c>
       <c r="T3">
-        <v>4.4229217359690836</v>
+        <v>4.4229217698027981</v>
       </c>
       <c r="U3">
-        <v>2.6440027523358793</v>
+        <v>2.644002775914899</v>
       </c>
       <c r="V3">
-        <v>-18.465681051851845</v>
+        <v>-18.465681043638988</v>
       </c>
       <c r="W3">
-        <v>-2.6223143615158762</v>
+        <v>-2.6223143177834487</v>
       </c>
       <c r="X3">
-        <v>2.4272289209013458</v>
+        <v>2.4272289283314699</v>
       </c>
       <c r="Y3">
-        <v>2.2192101987469712</v>
+        <v>2.2192102175890724</v>
       </c>
       <c r="Z3">
-        <v>1.117660837461365</v>
+        <v>1.1176608507028192</v>
       </c>
       <c r="AA3">
-        <v>4.0544500836942206</v>
+        <v>4.0544501230235426</v>
       </c>
       <c r="AB3">
-        <v>12.133872271393003</v>
+        <v>12.133872277650568</v>
       </c>
       <c r="AC3">
-        <v>2.9940630455906074</v>
+        <v>2.9940630703450282</v>
       </c>
       <c r="AD3">
-        <v>14.639994771488887</v>
+        <v>14.639994814619797</v>
       </c>
       <c r="AE3">
-        <v>6.5092493235924351</v>
+        <v>6.5092493292742546</v>
       </c>
       <c r="AF3">
-        <v>3.6933044217145934</v>
+        <v>3.6933044427262374</v>
       </c>
       <c r="AG3">
-        <v>-3.9620488306578494</v>
+        <v>-3.9620487902633243</v>
       </c>
       <c r="AH3">
-        <v>-3.1606028537658801</v>
+        <v>-3.1606028629565799</v>
       </c>
       <c r="AI3">
-        <v>10.760343879856833</v>
+        <v>10.760343913901437</v>
       </c>
       <c r="AJ3">
-        <v>-0.6171823065624551</v>
+        <v>-0.61718223459187982</v>
       </c>
       <c r="AK3">
-        <v>-8.7895439010112426</v>
+        <v>-8.789543857003693</v>
       </c>
       <c r="AL3">
-        <v>-3.4344324411736835</v>
+        <v>-3.4344324080657458</v>
       </c>
       <c r="AM3">
-        <v>4.6686614487745075</v>
+        <v>4.6686615040189281</v>
       </c>
       <c r="AN3">
-        <v>11.554477809629176</v>
+        <v>11.554477848804552</v>
       </c>
       <c r="AO3">
-        <v>3.3087087773658084</v>
+        <v>3.3087088066116834</v>
       </c>
       <c r="AP3">
-        <v>2.2585200726589321</v>
+        <v>2.2585201011691964</v>
       </c>
       <c r="AQ3">
-        <v>0.33959328034710978</v>
+        <v>0.33959331559064765</v>
       </c>
       <c r="AR3">
-        <v>3.0694212344092762</v>
+        <v>3.0694212499572728</v>
       </c>
       <c r="AS3">
-        <v>13.651089170382605</v>
+        <v>13.651089193246591</v>
       </c>
       <c r="AT3">
-        <v>4.1218762435049143</v>
+        <v>4.1218762662504957</v>
       </c>
       <c r="AU3">
-        <v>0.60407914595804613</v>
+        <v>0.60407917989758175</v>
       </c>
       <c r="AV3">
-        <v>-0.69380836759282261</v>
+        <v>-0.69380825963393988</v>
       </c>
       <c r="AW3">
-        <v>6.6131354716208328</v>
+        <v>6.613135551247094</v>
       </c>
       <c r="AX3">
-        <v>6.1943716837740084</v>
+        <v>6.1943717129557783</v>
       </c>
       <c r="AY3">
-        <v>2.4911415716780994</v>
+        <v>2.4911416031523146</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>19.077400109545863</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.1890234718711028</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>30.929007492107012</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>14.478320962874356</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>59.675075439025861</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.7194078627158618</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.7660091891157776</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.4366437551336873</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.26992957881059</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.0602162527819559</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.9637863594329161</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.1997353725520199</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.88711981103574544</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-3.4082415761405258</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.898830212275186</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>6.3263119550006053</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.698302383168901</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.2305521547658529</v>
+        <v>7.2305188247658521</v>
       </c>
       <c r="T2">
         <v>0.26117221904259935</v>
@@ -576,147 +465,144 @@
         <v>7.132312483637449</v>
       </c>
       <c r="W2">
-        <v>2.3098297708765259</v>
+        <v>2.309796440876525</v>
       </c>
       <c r="X2">
-        <v>-1.8022471599823042</v>
+        <v>-1.8022138299823034</v>
       </c>
       <c r="Y2">
         <v>-4.8146063884956831</v>
       </c>
       <c r="Z2">
-        <v>23.878578393844421</v>
+        <v>23.878611723844422</v>
       </c>
       <c r="AA2">
-        <v>-1.539659435208975</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>10.803889916206039</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.9262068654419764</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>15.631100596191686</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>32.411762082843929</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.4568517206134075</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.2211667085655762</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.97655381386339</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-3.9073984002711484</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>10.427433393997674</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>8.4196958605017471</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.6955598881470451</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.4380045152925547</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.9413488133607544</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.4874179535722938</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.9451994250978224</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.2110780464956292</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.78110073426555</v>
+        <v>3.7811340642655509</v>
       </c>
       <c r="AS2">
         <v>3.4043051984518229</v>
       </c>
       <c r="AT2">
-        <v>-2.5285834239023401</v>
+        <v>-2.528616753902341</v>
       </c>
       <c r="AU2">
-        <v>-0.46431249950376241</v>
+        <v>-0.46427916950376158</v>
       </c>
       <c r="AV2">
-        <v>12.41943925076928</v>
+        <v>12.419405920769286</v>
       </c>
       <c r="AW2">
-        <v>0.16354421683057296</v>
+        <v>0.16357754683057379</v>
       </c>
       <c r="AX2">
-        <v>3.9514573470193852</v>
+        <v>3.9514906770193789</v>
       </c>
       <c r="AY2">
-        <v>-4.4391396878630118</v>
+        <v>-4.439106357863011</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.065002876020941</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.0886973285356945</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-7.2123391262131875</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9.0575816632001178</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11.734385557928853</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.0992245401899012</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.99313553056818193</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.51554586445979567</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.6207565841069851</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-10.389396330083613</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-25.632818769961432</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.545096311923395</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.6643434940244362</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.838265024556307</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.39658319748136961</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>6.4798439541474337</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.1004145978046722</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>5.2364895788736376</v>
@@ -728,94 +614,94 @@
         <v>2.644002775914899</v>
       </c>
       <c r="V3">
-        <v>-18.465681043638988</v>
+        <v>-18.465647713638994</v>
       </c>
       <c r="W3">
-        <v>-2.6223143177834487</v>
+        <v>-2.622280987783455</v>
       </c>
       <c r="X3">
-        <v>2.4272289283314699</v>
+        <v>2.427195598331469</v>
       </c>
       <c r="Y3">
-        <v>2.2192102175890724</v>
+        <v>-23.81082311241093</v>
       </c>
       <c r="Z3">
-        <v>1.1176608507028192</v>
+        <v>-4.325705819297184</v>
       </c>
       <c r="AA3">
-        <v>4.0544501230235426</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>12.133872277650568</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>2.9940630703450282</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>14.639994814619797</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>6.5092493292742546</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.6933044427262374</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-3.9620487902633243</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-3.1606028629565799</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>10.760343913901437</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.61718223459187982</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-8.789543857003693</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-3.4344324080657458</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.6686615040189281</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>11.554477848804552</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.3087088066116834</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.2585201011691964</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.33959331559064765</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>3.0694212499572728</v>
+        <v>3.0693879199572791</v>
       </c>
       <c r="AS3">
-        <v>13.651089193246591</v>
+        <v>13.651122523246599</v>
       </c>
       <c r="AT3">
         <v>4.1218762662504957</v>
       </c>
       <c r="AU3">
-        <v>0.60407917989758175</v>
+        <v>0.60411250989758258</v>
       </c>
       <c r="AV3">
-        <v>-0.69380825963393988</v>
+        <v>-0.69377492963393195</v>
       </c>
       <c r="AW3">
         <v>6.613135551247094</v>
       </c>
       <c r="AX3">
-        <v>6.1943717129557783</v>
+        <v>2.0210717129557736</v>
       </c>
       <c r="AY3">
-        <v>2.4911416031523146</v>
+        <v>-39.928825066847693</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.077366721727209</v>
+        <v>-3.408208246140525</v>
       </c>
       <c r="C2">
-        <v>2.8823567912846002</v>
+        <v>2.698302383168901</v>
       </c>
       <c r="D2">
-        <v>30.929040787444443</v>
+        <v>1.9413154833607607</v>
       </c>
       <c r="E2">
-        <v>14.478287589334307</v>
+        <v>3.2110447164956284</v>
       </c>
       <c r="F2">
         <v>59.675075431581973</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.065002871006293</v>
+        <v>2.838265024556307</v>
       </c>
       <c r="C3">
-        <v>0.2019972888957966</v>
+        <v>8.1003812678046714</v>
       </c>
       <c r="D3">
-        <v>-7.2123724803224505</v>
+        <v>11.554444518804551</v>
       </c>
       <c r="E3">
-        <v>9.0576149717325265</v>
+        <v>0.50844314281115999</v>
       </c>
       <c r="F3">
         <v>11.734385543396044</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.077366721727209</v>
+        <v>20.273753141035748</v>
       </c>
       <c r="C2">
-        <v>2.8823567912846002</v>
+        <v>-3.408208246140525</v>
       </c>
       <c r="D2">
-        <v>30.929040787444443</v>
+        <v>-1.7819954847074513</v>
       </c>
       <c r="E2">
-        <v>14.478287589334307</v>
+        <v>1.9413154833607607</v>
       </c>
       <c r="F2">
         <v>59.675075431581973</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.065002871006293</v>
+        <v>18.467710164024432</v>
       </c>
       <c r="C3">
-        <v>0.2019972888957966</v>
+        <v>2.838265024556307</v>
       </c>
       <c r="D3">
-        <v>-7.2123724803224505</v>
+        <v>-12.441338495981078</v>
       </c>
       <c r="E3">
-        <v>9.0576149717325265</v>
+        <v>11.554444518804551</v>
       </c>
       <c r="F3">
         <v>11.734385543396044</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>19.077366779545862</v>
+      </c>
+      <c r="C2">
+        <v>2.8823568018711043</v>
+      </c>
+      <c r="D2">
+        <v>30.929040822107005</v>
+      </c>
+      <c r="E2">
+        <v>14.478287632874355</v>
+      </c>
+      <c r="F2">
+        <v>59.675075439025861</v>
+      </c>
+      <c r="G2">
+        <v>1.7193745327158609</v>
+      </c>
+      <c r="H2">
+        <v>1.7660091891157776</v>
+      </c>
+      <c r="I2">
+        <v>4.4366770851336881</v>
+      </c>
+      <c r="J2">
+        <v>5.2698962488105821</v>
+      </c>
+      <c r="K2">
+        <v>-13.983117077218054</v>
+      </c>
+      <c r="L2">
+        <v>3.9637530294329224</v>
+      </c>
+      <c r="M2">
+        <v>7.1997353725520199</v>
+      </c>
+      <c r="N2">
         <v>20.273753141035748</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-3.408208246140525</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.898830212275186</v>
+      </c>
+      <c r="Q2">
+        <v>-19.017054714999396</v>
+      </c>
+      <c r="R2">
+        <v>2.698302383168901</v>
+      </c>
+      <c r="S2">
+        <v>7.2305188247658521</v>
+      </c>
+      <c r="T2">
+        <v>0.26117221904259935</v>
+      </c>
+      <c r="U2">
+        <v>-12.138669321899449</v>
+      </c>
+      <c r="V2">
+        <v>7.132312483637449</v>
+      </c>
+      <c r="W2">
+        <v>2.309796440876525</v>
+      </c>
+      <c r="X2">
+        <v>-1.8022138299823034</v>
+      </c>
+      <c r="Y2">
+        <v>-4.8146063884956831</v>
+      </c>
+      <c r="Z2">
+        <v>23.878611723844422</v>
+      </c>
+      <c r="AA2">
+        <v>-1.5396927652089758</v>
+      </c>
+      <c r="AB2">
+        <v>20.263923246206041</v>
+      </c>
+      <c r="AC2">
+        <v>5.9262401954419772</v>
+      </c>
+      <c r="AD2">
+        <v>15.631133926191687</v>
+      </c>
+      <c r="AE2">
+        <v>32.411762082843929</v>
+      </c>
+      <c r="AF2">
+        <v>3.4568850506134083</v>
+      </c>
+      <c r="AG2">
+        <v>3.2211333785655683</v>
+      </c>
+      <c r="AH2">
+        <v>5.9765871438633908</v>
+      </c>
+      <c r="AI2">
+        <v>-3.9073984002711484</v>
+      </c>
+      <c r="AJ2">
+        <v>8.6374667239976759</v>
+      </c>
+      <c r="AK2">
+        <v>8.4196958605017471</v>
+      </c>
+      <c r="AL2">
+        <v>2.6955932181470459</v>
+      </c>
+      <c r="AM2">
         <v>-1.7819954847074513</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.9413154833607607</v>
       </c>
-      <c r="F2">
-        <v>59.675075431581973</v>
-      </c>
-      <c r="G2">
-        <v>1.7193745123677502</v>
-      </c>
-      <c r="H2">
-        <v>1.7660091501820574</v>
-      </c>
-      <c r="I2">
-        <v>4.4366770588541868</v>
-      </c>
-      <c r="J2">
-        <v>5.2698962298527761</v>
-      </c>
-      <c r="K2">
-        <v>-13.983117091891344</v>
-      </c>
-      <c r="L2">
-        <v>3.9637529790309998</v>
-      </c>
-      <c r="M2">
-        <v>7.1997353249756557</v>
-      </c>
-      <c r="N2">
-        <v>20.273753080406117</v>
-      </c>
-      <c r="O2">
-        <v>-3.4082082806182896</v>
-      </c>
-      <c r="P2">
-        <v>11.898830204291627</v>
-      </c>
-      <c r="Q2">
-        <v>-19.017054728458277</v>
-      </c>
-      <c r="R2">
-        <v>2.6983023787563525</v>
-      </c>
-      <c r="S2">
-        <v>7.2305188022828446</v>
-      </c>
-      <c r="T2">
-        <v>0.26117217336087606</v>
-      </c>
-      <c r="U2">
-        <v>-12.138669341943043</v>
-      </c>
-      <c r="V2">
-        <v>7.1323124752978586</v>
-      </c>
-      <c r="W2">
-        <v>2.3097963917718118</v>
-      </c>
-      <c r="X2">
-        <v>-1.802213849103218</v>
-      </c>
-      <c r="Y2">
-        <v>-4.8146064136478159</v>
-      </c>
-      <c r="Z2">
-        <v>23.878611705869311</v>
-      </c>
-      <c r="AA2">
-        <v>-1.5396928426125598</v>
-      </c>
-      <c r="AB2">
-        <v>20.263923237694144</v>
-      </c>
-      <c r="AC2">
-        <v>5.9262402034807593</v>
-      </c>
-      <c r="AD2">
-        <v>15.631133919333472</v>
-      </c>
-      <c r="AE2">
-        <v>32.411762057490414</v>
-      </c>
-      <c r="AF2">
-        <v>3.4568850435444674</v>
-      </c>
-      <c r="AG2">
-        <v>3.221133339864096</v>
-      </c>
-      <c r="AH2">
-        <v>5.9765871256409184</v>
-      </c>
-      <c r="AI2">
-        <v>-3.9073984242530173</v>
-      </c>
-      <c r="AJ2">
-        <v>8.6374666650355181</v>
-      </c>
-      <c r="AK2">
-        <v>8.419695819238612</v>
-      </c>
-      <c r="AL2">
-        <v>2.6955931809784275</v>
-      </c>
-      <c r="AM2">
-        <v>-1.7819955549446007</v>
-      </c>
-      <c r="AN2">
-        <v>1.9413154344617425</v>
-      </c>
       <c r="AO2">
-        <v>4.4874512546243537</v>
+        <v>4.4874512835722946</v>
       </c>
       <c r="AP2">
-        <v>-0.94519943183912858</v>
+        <v>-0.9451994250978224</v>
       </c>
       <c r="AQ2">
-        <v>3.2110446937995505</v>
+        <v>3.2110447164956284</v>
       </c>
       <c r="AR2">
-        <v>3.781134042711237</v>
+        <v>3.7811340642655509</v>
       </c>
       <c r="AS2">
-        <v>3.4043051829834212</v>
+        <v>3.4043051984518229</v>
       </c>
       <c r="AT2">
-        <v>-2.5286167722317643</v>
+        <v>-2.528616753902341</v>
       </c>
       <c r="AU2">
-        <v>-0.4642791720814472</v>
+        <v>-0.46427916950376158</v>
       </c>
       <c r="AV2">
-        <v>12.419405884517957</v>
+        <v>12.419405920769286</v>
       </c>
       <c r="AW2">
-        <v>0.16357751881664484</v>
+        <v>0.16357754683057379</v>
       </c>
       <c r="AX2">
-        <v>3.9514906347926271</v>
+        <v>3.9514906770193789</v>
       </c>
       <c r="AY2">
-        <v>-4.4391063799084094</v>
+        <v>-4.439106357863011</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.065002876020941</v>
+      </c>
+      <c r="C3">
+        <v>0.20199732853569685</v>
+      </c>
+      <c r="D3">
+        <v>-7.2123724562131883</v>
+      </c>
+      <c r="E3">
+        <v>9.0576149932001115</v>
+      </c>
+      <c r="F3">
+        <v>11.734385557928853</v>
+      </c>
+      <c r="G3">
+        <v>1.0992578701899021</v>
+      </c>
+      <c r="H3">
+        <v>0.99316886056817566</v>
+      </c>
+      <c r="I3">
+        <v>0.5155791944597965</v>
+      </c>
+      <c r="J3">
+        <v>-8.13924341589302</v>
+      </c>
+      <c r="K3">
+        <v>-10.389396330083613</v>
+      </c>
+      <c r="L3">
+        <v>-25.632818769961432</v>
+      </c>
+      <c r="M3">
+        <v>10.545062981923394</v>
+      </c>
+      <c r="N3">
         <v>18.467710164024432</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>2.838265024556307</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.39658319748136961</v>
+      </c>
+      <c r="Q3">
+        <v>6.4798772841474346</v>
+      </c>
+      <c r="R3">
+        <v>8.1003812678046714</v>
+      </c>
+      <c r="S3">
+        <v>5.2364895788736376</v>
+      </c>
+      <c r="T3">
+        <v>4.4229217698027981</v>
+      </c>
+      <c r="U3">
+        <v>2.644002775914899</v>
+      </c>
+      <c r="V3">
+        <v>-18.465647713638994</v>
+      </c>
+      <c r="W3">
+        <v>-2.622280987783455</v>
+      </c>
+      <c r="X3">
+        <v>2.427195598331469</v>
+      </c>
+      <c r="Y3">
+        <v>-23.81082311241093</v>
+      </c>
+      <c r="Z3">
+        <v>-4.325705819297184</v>
+      </c>
+      <c r="AA3">
+        <v>4.0544834530235434</v>
+      </c>
+      <c r="AB3">
+        <v>11.663905607650563</v>
+      </c>
+      <c r="AC3">
+        <v>2.9940297403450273</v>
+      </c>
+      <c r="AD3">
+        <v>14.640028144619798</v>
+      </c>
+      <c r="AE3">
+        <v>6.5092826592742554</v>
+      </c>
+      <c r="AF3">
+        <v>3.6933044427262374</v>
+      </c>
+      <c r="AG3">
+        <v>-3.9620487902633243</v>
+      </c>
+      <c r="AH3">
+        <v>-3.1444097810936924</v>
+      </c>
+      <c r="AI3">
+        <v>7.8203772439014472</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.61718223459187982</v>
+      </c>
+      <c r="AK3">
+        <v>-8.7895771870037009</v>
+      </c>
+      <c r="AL3">
+        <v>-3.4344324080657458</v>
+      </c>
+      <c r="AM3">
         <v>-12.441338495981078</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>11.554444518804551</v>
       </c>
-      <c r="F3">
-        <v>11.734385543396044</v>
-      </c>
-      <c r="G3">
-        <v>1.0992578396183816</v>
-      </c>
-      <c r="H3">
-        <v>0.99316881050334871</v>
-      </c>
-      <c r="I3">
-        <v>0.5155791833417851</v>
-      </c>
-      <c r="J3">
-        <v>-8.1392434429139939</v>
-      </c>
-      <c r="K3">
-        <v>-10.389396355314631</v>
-      </c>
-      <c r="L3">
-        <v>-25.632818817804463</v>
-      </c>
-      <c r="M3">
-        <v>10.545024753360948</v>
-      </c>
-      <c r="N3">
-        <v>18.467710121204249</v>
-      </c>
-      <c r="O3">
-        <v>2.8382650099930871</v>
-      </c>
-      <c r="P3">
-        <v>0.39658314900247404</v>
-      </c>
-      <c r="Q3">
-        <v>6.4798772710160506</v>
-      </c>
-      <c r="R3">
-        <v>8.1003812351563056</v>
-      </c>
-      <c r="S3">
-        <v>5.236489564493624</v>
-      </c>
-      <c r="T3">
-        <v>4.4229217359690836</v>
-      </c>
-      <c r="U3">
-        <v>2.6440027523358793</v>
-      </c>
-      <c r="V3">
-        <v>-18.465647721851852</v>
-      </c>
-      <c r="W3">
-        <v>-2.6222810315158824</v>
-      </c>
-      <c r="X3">
-        <v>2.427195590901345</v>
-      </c>
-      <c r="Y3">
-        <v>-23.810823131253031</v>
-      </c>
-      <c r="Z3">
-        <v>-4.3257058325386382</v>
-      </c>
-      <c r="AA3">
-        <v>4.0544834136942214</v>
-      </c>
-      <c r="AB3">
-        <v>11.663905601392997</v>
-      </c>
-      <c r="AC3">
-        <v>2.9940297155906066</v>
-      </c>
-      <c r="AD3">
-        <v>14.640028101488888</v>
-      </c>
-      <c r="AE3">
-        <v>6.509282653592436</v>
-      </c>
-      <c r="AF3">
-        <v>3.6933044217145934</v>
-      </c>
-      <c r="AG3">
-        <v>-3.9620488306578494</v>
-      </c>
-      <c r="AH3">
-        <v>-3.1444098003442207</v>
-      </c>
-      <c r="AI3">
-        <v>7.8203772098568436</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.6171823065624551</v>
-      </c>
-      <c r="AK3">
-        <v>-8.7895772310112505</v>
-      </c>
-      <c r="AL3">
-        <v>-3.4344324411736835</v>
-      </c>
-      <c r="AM3">
-        <v>-12.441338551225499</v>
-      </c>
-      <c r="AN3">
-        <v>11.554444479629176</v>
-      </c>
       <c r="AO3">
-        <v>3.3086754473658075</v>
+        <v>3.3086754766116826</v>
       </c>
       <c r="AP3">
-        <v>2.2585534026589329</v>
+        <v>2.2585534311691973</v>
       </c>
       <c r="AQ3">
-        <v>0.50844310678564142</v>
+        <v>0.50844314281115999</v>
       </c>
       <c r="AR3">
-        <v>3.0693879044092824</v>
+        <v>3.0693879199572791</v>
       </c>
       <c r="AS3">
-        <v>13.651122500382613</v>
+        <v>13.651122523246599</v>
       </c>
       <c r="AT3">
-        <v>4.1218762435049143</v>
+        <v>4.1218762662504957</v>
       </c>
       <c r="AU3">
-        <v>0.60411247595804696</v>
+        <v>0.60411250989758258</v>
       </c>
       <c r="AV3">
-        <v>-0.69377503759281467</v>
+        <v>-0.69377492963393195</v>
       </c>
       <c r="AW3">
-        <v>6.6131354716208328</v>
+        <v>6.613135551247094</v>
       </c>
       <c r="AX3">
-        <v>2.0210716837740037</v>
+        <v>2.0210717129557736</v>
       </c>
       <c r="AY3">
-        <v>-39.928825098321909</v>
+        <v>-39.928825066847693</v>
       </c>
     </row>
   </sheetData>
